--- a/第1章作业/hr15.xlsx
+++ b/第1章作业/hr15.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="hr_t">Sheet1!$B:$B</definedName>
+    <definedName name="hr_y">Sheet1!$A:$A</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -340,8 +344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
